--- a/downloaded_files/CMPS201_Lecture-35667.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35667.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -291,6 +291,15 @@
     <x:t>Abdelrhman Mohamed abdelhamid farghaly</x:t>
   </x:si>
   <x:si>
+    <x:t>4240027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد مصباح عبدالسلام عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohamed Misbah abdelsalam Abdou</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230064</x:t>
   </x:si>
   <x:si>
@@ -369,12 +378,6 @@
     <x:t>عمرو هاشم سعيد عبداللطيف</x:t>
   </x:si>
   <x:si>
-    <x:t>1230323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كيرلس ناصر عدلى سلامة</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230090</x:t>
   </x:si>
   <x:si>
@@ -454,6 +457,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Khaled Abouelyazid Shalaby</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عاطف محمود احمد خليل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed atef</x:t>
   </x:si>
   <x:si>
     <x:t>1220314</x:t>
@@ -650,7 +662,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E59" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -950,7 +962,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T58"/>
+  <x:dimension ref="A1:T59"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1967,7 +1979,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4315548958</x:v>
+        <x:v>45922.4078728009</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1999,7 +2011,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4200529745</x:v>
+        <x:v>45907.4315548958</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2031,7 +2043,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4178459144</x:v>
+        <x:v>45907.4200529745</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2063,7 +2075,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4340326042</x:v>
+        <x:v>45907.4178459144</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2095,7 +2107,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4271458681</x:v>
+        <x:v>45907.4340326042</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2127,7 +2139,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4309328356</x:v>
+        <x:v>45907.4271458681</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2159,7 +2171,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45907.4309328356</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2191,7 +2203,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2219,9 +2231,11 @@
       <x:c r="C39" s="2" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="D39" s="2" t="s"/>
+      <x:c r="D39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
       <x:c r="E39" s="3">
-        <x:v>45913.8035849537</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2244,14 +2258,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s"/>
       <x:c r="E40" s="3">
-        <x:v>45907.7066800926</x:v>
+        <x:v>45913.8035849537</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2274,13 +2288,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45907.4200765394</x:v>
@@ -2306,13 +2320,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
         <x:v>45907.4208318634</x:v>
@@ -2338,13 +2352,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
         <x:v>45907.4148712963</x:v>
@@ -2370,13 +2384,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
         <x:v>45907.4210290856</x:v>
@@ -2402,13 +2416,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
         <x:v>45907.4203634606</x:v>
@@ -2434,13 +2448,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
         <x:v>45907.4199702894</x:v>
@@ -2466,13 +2480,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D47" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
         <x:v>45906.6660722222</x:v>
@@ -2498,13 +2512,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C48" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D48" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
         <x:v>45907.420866169</x:v>
@@ -2530,13 +2544,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C49" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D49" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
         <x:v>45907.414474919</x:v>
@@ -2562,16 +2576,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C50" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D50" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.442697419</x:v>
+        <x:v>45922.4445815972</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2594,16 +2608,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C51" s="2" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D51" s="2" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45907.442697419</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2626,16 +2640,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C52" s="2" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D52" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2658,16 +2672,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B53" s="2" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C53" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D53" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.4177945602</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2690,16 +2704,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B54" s="2" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C54" s="2" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D54" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.6710647801</x:v>
+        <x:v>45907.4177945602</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2722,16 +2736,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B55" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C55" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D55" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.6710647801</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2754,16 +2768,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B56" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C56" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D56" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.4205376157</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2786,16 +2800,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B57" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C57" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D57" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.4205376157</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2818,16 +2832,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B58" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C58" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D58" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2845,16 +2859,48 @@
       <x:c r="S58" s="2" t="s"/>
       <x:c r="T58" s="2" t="s"/>
     </x:row>
+    <x:row r="59" spans="1:20">
+      <x:c r="A59" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C59" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D59" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="E59" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F59" s="2" t="s"/>
+      <x:c r="G59" s="2" t="s"/>
+      <x:c r="H59" s="2" t="s"/>
+      <x:c r="I59" s="2" t="s"/>
+      <x:c r="J59" s="2" t="s"/>
+      <x:c r="K59" s="2" t="s"/>
+      <x:c r="L59" s="2" t="s"/>
+      <x:c r="M59" s="2" t="s"/>
+      <x:c r="N59" s="2" t="s"/>
+      <x:c r="O59" s="2" t="s"/>
+      <x:c r="P59" s="2" t="s"/>
+      <x:c r="Q59" s="2" t="s"/>
+      <x:c r="R59" s="2" t="s"/>
+      <x:c r="S59" s="2" t="s"/>
+      <x:c r="T59" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [20511]20511-45-الجيزة الرئيسي Time : Monday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [20504]20504-60-الجيزة الرئيسي Time : Monday(11:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [20511]20511-45-الجيزة الرئيسي Time : Monday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [20504]20504-60-الجيزة الرئيسي Time : Monday(11:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [20511]20511-45-الجيزة الرئيسي Time : Monday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Microprocessor Systems (CMPS201) Location : [20504]20504-60-الجيزة الرئيسي Time : Monday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/CMPS201_Lecture-35667.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35667.xlsx
@@ -177,6 +177,15 @@
     <x:t>Habiba Hussein</x:t>
   </x:si>
   <x:si>
+    <x:t>1230179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزة محمد سيد حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230180</x:t>
   </x:si>
   <x:si>
@@ -421,15 +430,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed Abdelhafiz Abdel hameed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230097</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد ماهر فهمى محمد عيسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Ahmed Maher</x:t>
   </x:si>
   <x:si>
     <x:t>1220077</x:t>
@@ -1469,7 +1469,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.8966711458</x:v>
+        <x:v>45927.4545769329</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1565,7 +1565,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4207318287</x:v>
+        <x:v>45927.4153118403</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1597,7 +1597,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4203944444</x:v>
+        <x:v>45907.4207318287</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1629,7 +1629,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45907.4203944444</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1661,7 +1661,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.416055787</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1693,7 +1693,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4149852199</x:v>
+        <x:v>45907.416055787</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1721,9 +1721,11 @@
       <x:c r="C23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4331415857</x:v>
+        <x:v>45907.4149852199</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1746,16 +1748,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45907.4198693287</x:v>
+        <x:v>45907.4331415857</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1787,7 +1787,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4204129977</x:v>
+        <x:v>45907.4198693287</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1819,7 +1819,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.419865544</x:v>
+        <x:v>45907.4204129977</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1851,7 +1851,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.420984838</x:v>
+        <x:v>45907.419865544</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1883,7 +1883,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4210305556</x:v>
+        <x:v>45907.420984838</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1915,7 +1915,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4161412037</x:v>
+        <x:v>45907.4210305556</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1947,7 +1947,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45907.4161412037</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1979,7 +1979,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45922.4078728009</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2011,7 +2011,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4315548958</x:v>
+        <x:v>45922.4078728009</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2043,7 +2043,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4200529745</x:v>
+        <x:v>45907.4315548958</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2075,7 +2075,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4178459144</x:v>
+        <x:v>45907.4200529745</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2107,7 +2107,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4340326042</x:v>
+        <x:v>45907.4178459144</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2139,7 +2139,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4271458681</x:v>
+        <x:v>45927.5343335648</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2171,7 +2171,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4309328356</x:v>
+        <x:v>45907.4271458681</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2203,7 +2203,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45907.4309328356</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2235,7 +2235,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2263,9 +2263,11 @@
       <x:c r="C40" s="2" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="D40" s="2" t="s"/>
+      <x:c r="D40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
       <x:c r="E40" s="3">
-        <x:v>45913.8035849537</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2288,16 +2290,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
+      <x:c r="D41" s="2" t="s"/>
       <x:c r="E41" s="3">
-        <x:v>45907.4200765394</x:v>
+        <x:v>45913.8035849537</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2329,7 +2329,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4208318634</x:v>
+        <x:v>45907.4200765394</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2361,7 +2361,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4148712963</x:v>
+        <x:v>45907.4208318634</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2393,7 +2393,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4210290856</x:v>
+        <x:v>45907.4148712963</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2425,7 +2425,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4203634606</x:v>
+        <x:v>45907.4210290856</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2457,7 +2457,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4199702894</x:v>
+        <x:v>45907.4203634606</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>

--- a/downloaded_files/CMPS201_Lecture-35667.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35667.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -246,13 +246,13 @@
     <x:t>Ziad abdelraouf hassan aboelhaded</x:t>
   </x:si>
   <x:si>
-    <x:t>1230194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى طارق عوض مرعى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Tarek Awad Ali Marei</x:t>
+    <x:t>4250252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى احمد مصطفى احمد مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Ahmed Mustafa Ahmed Mustafa</x:t>
   </x:si>
   <x:si>
     <x:t>1230045</x:t>
@@ -493,15 +493,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud medhat mahmoud mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220279</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان عمرو عبدالمجيد فؤاد احمد شكرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Amr Abdelmagid</x:t>
   </x:si>
   <x:si>
     <x:t>1230258</x:t>
@@ -662,7 +653,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E59" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -962,7 +953,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T59"/>
+  <x:dimension ref="A1:T58"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1819,7 +1810,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4204129977</x:v>
+        <x:v>45928.476215162</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -2713,7 +2704,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.4177945602</x:v>
+        <x:v>45907.6710647801</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2745,7 +2736,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.6710647801</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2777,7 +2768,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.4205376157</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2809,7 +2800,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.4205376157</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2841,7 +2832,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2858,38 +2849,6 @@
       <x:c r="R58" s="2" t="s"/>
       <x:c r="S58" s="2" t="s"/>
       <x:c r="T58" s="2" t="s"/>
-    </x:row>
-    <x:row r="59" spans="1:20">
-      <x:c r="A59" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B59" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C59" s="2" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="D59" s="2" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="E59" s="3">
-        <x:v>45907.414405706</x:v>
-      </x:c>
-      <x:c r="F59" s="2" t="s"/>
-      <x:c r="G59" s="2" t="s"/>
-      <x:c r="H59" s="2" t="s"/>
-      <x:c r="I59" s="2" t="s"/>
-      <x:c r="J59" s="2" t="s"/>
-      <x:c r="K59" s="2" t="s"/>
-      <x:c r="L59" s="2" t="s"/>
-      <x:c r="M59" s="2" t="s"/>
-      <x:c r="N59" s="2" t="s"/>
-      <x:c r="O59" s="2" t="s"/>
-      <x:c r="P59" s="2" t="s"/>
-      <x:c r="Q59" s="2" t="s"/>
-      <x:c r="R59" s="2" t="s"/>
-      <x:c r="S59" s="2" t="s"/>
-      <x:c r="T59" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Lecture-35667.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35667.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -244,6 +244,15 @@
   </x:si>
   <x:si>
     <x:t>Ziad abdelraouf hassan aboelhaded</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سارة احمد علي سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sara Ahmed Ali Soliman</x:t>
   </x:si>
   <x:si>
     <x:t>4250252</x:t>
@@ -653,7 +662,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E59" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -953,7 +962,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T58"/>
+  <x:dimension ref="A1:T59"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1810,7 +1819,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45928.476215162</x:v>
+        <x:v>45929.0117313657</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1842,7 +1851,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.419865544</x:v>
+        <x:v>45928.476215162</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1874,7 +1883,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.420984838</x:v>
+        <x:v>45907.419865544</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1906,7 +1915,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4210305556</x:v>
+        <x:v>45907.420984838</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1938,7 +1947,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4161412037</x:v>
+        <x:v>45907.4210305556</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1970,7 +1979,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45907.4161412037</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2002,7 +2011,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45922.4078728009</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2034,7 +2043,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4315548958</x:v>
+        <x:v>45922.4078728009</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2066,7 +2075,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4200529745</x:v>
+        <x:v>45907.4315548958</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2098,7 +2107,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4178459144</x:v>
+        <x:v>45907.4200529745</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2130,7 +2139,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45927.5343335648</x:v>
+        <x:v>45907.4178459144</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2162,7 +2171,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4271458681</x:v>
+        <x:v>45927.5343335648</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2194,7 +2203,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4309328356</x:v>
+        <x:v>45907.4271458681</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2226,7 +2235,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45907.4309328356</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2258,7 +2267,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2286,9 +2295,11 @@
       <x:c r="C41" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="D41" s="2" t="s"/>
+      <x:c r="D41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
       <x:c r="E41" s="3">
-        <x:v>45913.8035849537</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2311,16 +2322,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
         <x:v>125</x:v>
       </x:c>
+      <x:c r="D42" s="2" t="s"/>
       <x:c r="E42" s="3">
-        <x:v>45907.4200765394</x:v>
+        <x:v>45913.8035849537</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2352,7 +2361,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4208318634</x:v>
+        <x:v>45907.4200765394</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2384,7 +2393,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4148712963</x:v>
+        <x:v>45907.4208318634</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2416,7 +2425,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4210290856</x:v>
+        <x:v>45907.4148712963</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2448,7 +2457,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4203634606</x:v>
+        <x:v>45907.4210290856</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2480,7 +2489,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45907.4203634606</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2512,7 +2521,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.420866169</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2544,7 +2553,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.414474919</x:v>
+        <x:v>45907.420866169</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2576,7 +2585,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45922.4445815972</x:v>
+        <x:v>45907.414474919</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2608,7 +2617,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.442697419</x:v>
+        <x:v>45922.4445815972</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2640,7 +2649,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45907.442697419</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2672,7 +2681,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2704,7 +2713,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.6710647801</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2736,7 +2745,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.6710647801</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2768,7 +2777,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.4205376157</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2800,7 +2809,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.4205376157</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2832,7 +2841,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2849,6 +2858,38 @@
       <x:c r="R58" s="2" t="s"/>
       <x:c r="S58" s="2" t="s"/>
       <x:c r="T58" s="2" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:20">
+      <x:c r="A59" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C59" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D59" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="E59" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F59" s="2" t="s"/>
+      <x:c r="G59" s="2" t="s"/>
+      <x:c r="H59" s="2" t="s"/>
+      <x:c r="I59" s="2" t="s"/>
+      <x:c r="J59" s="2" t="s"/>
+      <x:c r="K59" s="2" t="s"/>
+      <x:c r="L59" s="2" t="s"/>
+      <x:c r="M59" s="2" t="s"/>
+      <x:c r="N59" s="2" t="s"/>
+      <x:c r="O59" s="2" t="s"/>
+      <x:c r="P59" s="2" t="s"/>
+      <x:c r="Q59" s="2" t="s"/>
+      <x:c r="R59" s="2" t="s"/>
+      <x:c r="S59" s="2" t="s"/>
+      <x:c r="T59" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Lecture-35667.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35667.xlsx
@@ -459,15 +459,6 @@
     <x:t>Mohamed Ehab Saad Abdelkader Khalil Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1230245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد خالد ابواليزيد شلبي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Khaled Abouelyazid Shalaby</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230107</x:t>
   </x:si>
   <x:si>
@@ -511,6 +502,15 @@
   </x:si>
   <x:si>
     <x:t>Moustafa Ahmed Abdelkarim Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور الدين سامى حموده بكر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1230310</x:t>
@@ -2585,7 +2585,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.414474919</x:v>
+        <x:v>45922.4445815972</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2617,7 +2617,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45922.4445815972</x:v>
+        <x:v>45907.442697419</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2649,7 +2649,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.442697419</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2681,7 +2681,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2713,7 +2713,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45907.6710647801</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2745,7 +2745,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.6710647801</x:v>
+        <x:v>45928.9277546643</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>

--- a/downloaded_files/CMPS201_Lecture-35667.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35667.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -484,6 +484,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Ahmed Mahmoud Ali Mohamed Salama</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود حسن محمود عبدالغنى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Hassan Mahmoud Abdel-Ghani</x:t>
   </x:si>
   <x:si>
     <x:t>1220023</x:t>
@@ -662,7 +671,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E59" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E60" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -962,7 +971,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T59"/>
+  <x:dimension ref="A1:T60"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2681,7 +2690,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45927.4163854167</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2713,7 +2722,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.6710647801</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2745,7 +2754,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45928.9277546643</x:v>
+        <x:v>45907.6710647801</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2777,7 +2786,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45928.9277546643</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2809,7 +2818,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.4205376157</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2841,7 +2850,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.4205376157</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2873,7 +2882,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2890,6 +2899,38 @@
       <x:c r="R59" s="2" t="s"/>
       <x:c r="S59" s="2" t="s"/>
       <x:c r="T59" s="2" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:20">
+      <x:c r="A60" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C60" s="2" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="D60" s="2" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="E60" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F60" s="2" t="s"/>
+      <x:c r="G60" s="2" t="s"/>
+      <x:c r="H60" s="2" t="s"/>
+      <x:c r="I60" s="2" t="s"/>
+      <x:c r="J60" s="2" t="s"/>
+      <x:c r="K60" s="2" t="s"/>
+      <x:c r="L60" s="2" t="s"/>
+      <x:c r="M60" s="2" t="s"/>
+      <x:c r="N60" s="2" t="s"/>
+      <x:c r="O60" s="2" t="s"/>
+      <x:c r="P60" s="2" t="s"/>
+      <x:c r="Q60" s="2" t="s"/>
+      <x:c r="R60" s="2" t="s"/>
+      <x:c r="S60" s="2" t="s"/>
+      <x:c r="T60" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Lecture-35667.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35667.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -180,7 +180,7 @@
     <x:t>1230179</x:t>
   </x:si>
   <x:si>
-    <x:t>حمزة محمد سيد حسن</x:t>
+    <x:t>حمزة محمد سيد على على حسن</x:t>
   </x:si>
   <x:si>
     <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>
@@ -388,6 +388,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Nader Ibrahim Elebiary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو عماد صبحى حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
   </x:si>
   <x:si>
     <x:t>4240035</x:t>
@@ -671,7 +680,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E60" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -971,7 +980,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T60"/>
+  <x:dimension ref="A1:T61"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2336,9 +2345,11 @@
       <x:c r="C42" s="2" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s"/>
+      <x:c r="D42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
       <x:c r="E42" s="3">
-        <x:v>45913.8035849537</x:v>
+        <x:v>45935.4222297454</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2361,16 +2372,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
         <x:v>128</x:v>
       </x:c>
+      <x:c r="D43" s="2" t="s"/>
       <x:c r="E43" s="3">
-        <x:v>45907.4200765394</x:v>
+        <x:v>45913.8035849537</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2402,7 +2411,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4208318634</x:v>
+        <x:v>45907.4200765394</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2434,7 +2443,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4148712963</x:v>
+        <x:v>45907.4208318634</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2466,7 +2475,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4210290856</x:v>
+        <x:v>45907.4148712963</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2498,7 +2507,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.4203634606</x:v>
+        <x:v>45907.4210290856</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2530,7 +2539,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45907.4203634606</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2562,7 +2571,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.420866169</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2594,7 +2603,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45922.4445815972</x:v>
+        <x:v>45907.420866169</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2626,7 +2635,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.442697419</x:v>
+        <x:v>45922.4445815972</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2658,7 +2667,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45907.442697419</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2690,7 +2699,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45927.4163854167</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2722,7 +2731,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45927.4163854167</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2754,7 +2763,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.6710647801</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2786,7 +2795,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45928.9277546643</x:v>
+        <x:v>45907.6710647801</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2818,7 +2827,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45928.9277546643</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2850,7 +2859,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.4205376157</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2882,7 +2891,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.4205376157</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2914,7 +2923,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2931,6 +2940,38 @@
       <x:c r="R60" s="2" t="s"/>
       <x:c r="S60" s="2" t="s"/>
       <x:c r="T60" s="2" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:20">
+      <x:c r="A61" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D61" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="E61" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F61" s="2" t="s"/>
+      <x:c r="G61" s="2" t="s"/>
+      <x:c r="H61" s="2" t="s"/>
+      <x:c r="I61" s="2" t="s"/>
+      <x:c r="J61" s="2" t="s"/>
+      <x:c r="K61" s="2" t="s"/>
+      <x:c r="L61" s="2" t="s"/>
+      <x:c r="M61" s="2" t="s"/>
+      <x:c r="N61" s="2" t="s"/>
+      <x:c r="O61" s="2" t="s"/>
+      <x:c r="P61" s="2" t="s"/>
+      <x:c r="Q61" s="2" t="s"/>
+      <x:c r="R61" s="2" t="s"/>
+      <x:c r="S61" s="2" t="s"/>
+      <x:c r="T61" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Lecture-35667.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35667.xlsx
@@ -297,7 +297,7 @@
     <x:t>عبدالرحمن عصام محمد اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>abdalrahman esam mohamed</x:t>
+    <x:t>Abdalrahman Esam Mohamed Ismail Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1230060</x:t>
@@ -342,7 +342,7 @@
     <x:t>عمر احمد رأفت احمد محمود</x:t>
   </x:si>
   <x:si>
-    <x:t>Omar Ahmed Raafat Ahmed</x:t>
+    <x:t>Omar Ahmed Raafat Ahmed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1230073</x:t>
@@ -438,7 +438,7 @@
     <x:t>محمد أحمد عبد العظيم عبد الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed abdel aziem abdullah</x:t>
+    <x:t>Mohammed Ahmed Abdel Aziem Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1230094</x:t>

--- a/downloaded_files/CMPS201_Lecture-35667.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35667.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -253,15 +253,6 @@
   </x:si>
   <x:si>
     <x:t>Sara Ahmed Ali Soliman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى احمد مصطفى احمد مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Ahmed Mustafa Ahmed Mustafa</x:t>
   </x:si>
   <x:si>
     <x:t>1230045</x:t>
@@ -680,7 +671,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E60" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -980,7 +971,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T61"/>
+  <x:dimension ref="A1:T60"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1869,7 +1860,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45928.476215162</x:v>
+        <x:v>45907.419865544</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1901,7 +1892,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.419865544</x:v>
+        <x:v>45907.420984838</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1933,7 +1924,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.420984838</x:v>
+        <x:v>45907.4210305556</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1965,7 +1956,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4210305556</x:v>
+        <x:v>45907.4161412037</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1997,7 +1988,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4161412037</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2029,7 +2020,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45922.4078728009</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2061,7 +2052,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45922.4078728009</x:v>
+        <x:v>45907.4315548958</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2093,7 +2084,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4315548958</x:v>
+        <x:v>45907.4200529745</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2125,7 +2116,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4200529745</x:v>
+        <x:v>45907.4178459144</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2157,7 +2148,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4178459144</x:v>
+        <x:v>45927.5343335648</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2189,7 +2180,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45927.5343335648</x:v>
+        <x:v>45907.4271458681</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2221,7 +2212,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4271458681</x:v>
+        <x:v>45907.4309328356</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2253,7 +2244,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4309328356</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2285,7 +2276,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2317,7 +2308,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45935.4222297454</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2345,11 +2336,9 @@
       <x:c r="C42" s="2" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
+      <x:c r="D42" s="2" t="s"/>
       <x:c r="E42" s="3">
-        <x:v>45935.4222297454</x:v>
+        <x:v>45913.8035849537</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2372,14 +2361,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="C43" s="2" t="s">
+      <x:c r="D43" s="2" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="D43" s="2" t="s"/>
       <x:c r="E43" s="3">
-        <x:v>45913.8035849537</x:v>
+        <x:v>45907.4200765394</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2411,7 +2402,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4200765394</x:v>
+        <x:v>45907.4208318634</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2443,7 +2434,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4208318634</x:v>
+        <x:v>45907.4148712963</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2475,7 +2466,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4148712963</x:v>
+        <x:v>45907.4210290856</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2507,7 +2498,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.4210290856</x:v>
+        <x:v>45907.4203634606</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2539,7 +2530,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.4203634606</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2571,7 +2562,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45907.420866169</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2603,7 +2594,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.420866169</x:v>
+        <x:v>45922.4445815972</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2635,7 +2626,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45922.4445815972</x:v>
+        <x:v>45907.442697419</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2667,7 +2658,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.442697419</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2699,7 +2690,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45927.4163854167</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2731,7 +2722,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45927.4163854167</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2763,7 +2754,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45907.6710647801</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2795,7 +2786,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.6710647801</x:v>
+        <x:v>45928.9277546643</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2827,7 +2818,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45928.9277546643</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2859,7 +2850,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.4205376157</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2891,7 +2882,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.4205376157</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2923,7 +2914,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2940,38 +2931,6 @@
       <x:c r="R60" s="2" t="s"/>
       <x:c r="S60" s="2" t="s"/>
       <x:c r="T60" s="2" t="s"/>
-    </x:row>
-    <x:row r="61" spans="1:20">
-      <x:c r="A61" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B61" s="2" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="C61" s="2" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="D61" s="2" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="E61" s="3">
-        <x:v>45907.414405706</x:v>
-      </x:c>
-      <x:c r="F61" s="2" t="s"/>
-      <x:c r="G61" s="2" t="s"/>
-      <x:c r="H61" s="2" t="s"/>
-      <x:c r="I61" s="2" t="s"/>
-      <x:c r="J61" s="2" t="s"/>
-      <x:c r="K61" s="2" t="s"/>
-      <x:c r="L61" s="2" t="s"/>
-      <x:c r="M61" s="2" t="s"/>
-      <x:c r="N61" s="2" t="s"/>
-      <x:c r="O61" s="2" t="s"/>
-      <x:c r="P61" s="2" t="s"/>
-      <x:c r="Q61" s="2" t="s"/>
-      <x:c r="R61" s="2" t="s"/>
-      <x:c r="S61" s="2" t="s"/>
-      <x:c r="T61" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Lecture-35667.xlsx
+++ b/downloaded_files/CMPS201_Lecture-35667.xlsx
@@ -171,10 +171,10 @@
     <x:t>1230028</x:t>
   </x:si>
   <x:si>
-    <x:t>حبيبه حسين محمد احمد احمد بدر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Hussein</x:t>
+    <x:t xml:space="preserve">حبيبه حسين محمد احمد </x:t>
+  </x:si>
+  <x:si>
+    <x:t>HABIBA HUSSEIN MOHAMED AHMED</x:t>
   </x:si>
   <x:si>
     <x:t>1230179</x:t>
